--- a/InputData/trans/SYBSoEVP/Start Year Battery Share of EV Price.xlsx
+++ b/InputData/trans/SYBSoEVP/Start Year Battery Share of EV Price.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\SYBSoEVP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="22035" windowHeight="11835"/>
   </bookViews>
@@ -11,61 +16,16 @@
     <sheet name="Battery Cost Share" sheetId="3" r:id="rId2"/>
     <sheet name="SYBSoEVP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>Chevy Bolt</t>
-  </si>
-  <si>
-    <t>battery share of vehicle price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>EV Battery Cost / kWh</t>
   </si>
   <si>
-    <t>LG Chem "Ticked Off" with GM for Disclosing $145/kWh Battery Cell Pricing</t>
-  </si>
-  <si>
-    <t>http://insideevs.com/lg-chem-ticked-gm-disclosing-145kwh-battery-cell-pricing-video/</t>
-  </si>
-  <si>
-    <t>EV Battery Size for Chevy Bolt (the battery used for EV pricing)</t>
-  </si>
-  <si>
-    <t>Deep Dive: Chevrolet Bolt Battery Pack, Motor and More</t>
-  </si>
-  <si>
-    <t>http://insideevs.com/deep-dive-chevrolet-bolt-battery-pack-motor-and-more/</t>
-  </si>
-  <si>
-    <t>Due to data availability, we use the Chevrolet Bolt as our sample for estimating</t>
-  </si>
-  <si>
-    <t>battery size (kWh)</t>
-  </si>
-  <si>
-    <t>battery cost ($ / kWh)</t>
-  </si>
-  <si>
-    <t>battery cost ($)</t>
-  </si>
-  <si>
-    <t>starting vehicle price before subsidies ($)</t>
-  </si>
-  <si>
-    <t>battery share of EV price.</t>
-  </si>
-  <si>
-    <t>Inside EVs</t>
-  </si>
-  <si>
-    <t>Share of Price</t>
-  </si>
-  <si>
     <t>battery</t>
   </si>
   <si>
@@ -73,15 +33,51 @@
   </si>
   <si>
     <t>Sources:</t>
+  </si>
+  <si>
+    <t>UBS</t>
+  </si>
+  <si>
+    <t>w/options</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>Battery pack costs ($)</t>
+  </si>
+  <si>
+    <t>MSRP</t>
+  </si>
+  <si>
+    <t>Battery share of vehicle price</t>
+  </si>
+  <si>
+    <t>Figure 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q-Series: UBS Evidence Lab Electric Car Teardown - Distruption Ahead? </t>
+  </si>
+  <si>
+    <t>https://neo.ubs.com/shared/d1ZTxnvF2k/</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>The battery is a significant part of the price of an electric vehicle. The battery cost after the start</t>
+  </si>
+  <si>
+    <t>year is handled through endogenous learning.</t>
+  </si>
+  <si>
+    <t>Share of Price (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,10 +136,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,6 +148,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -202,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,7 +234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -457,60 +456,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>2016</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>7</v>
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -520,9 +514,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -531,65 +527,50 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>12300</v>
+      </c>
+      <c r="C2">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B3">
+        <v>42635</v>
+      </c>
+      <c r="C3">
+        <v>36620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <f>B5*B6</f>
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>37500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
-        <f>B7/B8</f>
-        <v>0.23200000000000001</v>
+      <c r="B4" s="4">
+        <f>B2/B3</f>
+        <v>0.28849536765568196</v>
+      </c>
+      <c r="C4" s="4">
+        <f>C2/C3</f>
+        <v>0.3358820316766794</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +585,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -613,16 +596,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <f>'Battery Cost Share'!B9</f>
-        <v>0.23200000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <f>AVERAGE('Battery Cost Share'!B4:C4)</f>
+        <v>0.31218869966618068</v>
       </c>
     </row>
   </sheetData>
